--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2238374.30736862</v>
+        <v>2344447.905521464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9464925.272566771</v>
+        <v>9480077.187694501</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>29.51180316264988</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>43.43639098655962</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>40.9011612876567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>181.5713159685594</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>15.83694765564135</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15823998920527</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>47.47366820089059</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>129.6633107558685</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>61.0686147448089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>120.6801145208591</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>27.00971856836598</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>113.5028334418564</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>26.12116916215799</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>62.36981422367135</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>151.3642268094355</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>131.4093105446496</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>16.77337404802883</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>32.4720786658923</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>79.0585636675447</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>71.22475183605047</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>110.3569086801651</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>32.05158559392623</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.600826611594925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.5168569947382</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6969570046971</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.2632269748843</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>40.32853379926716</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1232.405431550704</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>3075.752931582726</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>3075.752931582726</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2722.984276312612</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>2349.518518051532</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="Y2" t="n">
-        <v>1959.379186075721</v>
+        <v>1232.405431550704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>168.00081891452</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.8549345700854</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>372.8549345700854</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>372.8549345700854</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1256.412002569147</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1256.412002569147</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1256.412002569147</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>966.9948325321864</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>739.005281634169</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.5033994003252</v>
+        <v>518.2127024906389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1992.201838557433</v>
+        <v>904.8820361188241</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>904.8820361188241</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>546.6163375120736</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>546.6163375120736</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557433</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1849.200058761417</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.097191887061</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1305.412703681174</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W7" t="n">
-        <v>1015.995533644213</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="X7" t="n">
-        <v>788.005982746196</v>
+        <v>565.1427566090758</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>565.1427566090758</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X8" t="n">
-        <v>2694.121459355123</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>435.8535386027992</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>435.8535386027992</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>285.7368991904634</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>285.7368991904634</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>285.7368991904634</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>285.7368991904634</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>617.5020034330389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2265.268053123717</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1976.192826467915</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>221.343178181171</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>221.343178181171</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2383.963271233119</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2383.963271233119</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>450.3518748756881</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5971,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797136</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192544</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>2725.318015942819</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E31" t="n">
-        <v>397.4723325755821</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4149.386955555053</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3894.702467349166</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3605.285297312205</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3377.295746414188</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="32">
@@ -6689,55 +6691,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V34" t="n">
-        <v>3813.602863949058</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W34" t="n">
-        <v>3524.185693912098</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X34" t="n">
-        <v>3524.185693912098</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
         <v>1577.52840832642</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>363.7369613277355</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>196.5408620426154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2421.444672494519</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2238.589838149423</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.988373172364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1729.913146516562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1440.495976479601</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X43" t="n">
-        <v>1212.506425581584</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y43" t="n">
-        <v>991.7138464380538</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.4634841899368</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.005432486450296</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15.88259428919238</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>34.11482774761927</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.6605885985403</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.7123957233518</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>66.36248435538654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>214.9597225531937</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>115.352746708872</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>220.0860577299018</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>211.9838267404999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>65.7299641038896</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.11201973523738</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>246.1944645373239</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>828971.0414094437</v>
+        <v>836695.5471608358</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>828971.0414094437</v>
+        <v>836695.5471608358</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>605359.949767504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>135522.1369769831</v>
+      </c>
+      <c r="C4" t="n">
+        <v>135522.1369769831</v>
+      </c>
+      <c r="D4" t="n">
         <v>87914.29116309554</v>
-      </c>
-      <c r="C4" t="n">
-        <v>87914.29116309554</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-908811.6500538691</v>
+        <v>-727430.3655945351</v>
       </c>
       <c r="C6" t="n">
-        <v>419933.0956737235</v>
+        <v>387321.4179813849</v>
       </c>
       <c r="D6" t="n">
-        <v>419933.0956737234</v>
+        <v>227305.9552333856</v>
       </c>
       <c r="E6" t="n">
-        <v>170097.7017444973</v>
+        <v>170097.7017444976</v>
       </c>
       <c r="F6" t="n">
+        <v>495510.1635518528</v>
+      </c>
+      <c r="G6" t="n">
+        <v>495510.1635518537</v>
+      </c>
+      <c r="H6" t="n">
+        <v>495510.163551853</v>
+      </c>
+      <c r="I6" t="n">
+        <v>495510.1635518526</v>
+      </c>
+      <c r="J6" t="n">
+        <v>327904.9857418702</v>
+      </c>
+      <c r="K6" t="n">
         <v>495510.1635518532</v>
       </c>
-      <c r="G6" t="n">
-        <v>495510.1635518527</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>447216.1935436625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>410455.1356163411</v>
+      </c>
+      <c r="N6" t="n">
+        <v>495510.1635518532</v>
+      </c>
+      <c r="O6" t="n">
         <v>495510.1635518529</v>
       </c>
-      <c r="I6" t="n">
-        <v>495510.1635518529</v>
-      </c>
-      <c r="J6" t="n">
-        <v>277978.9611545755</v>
-      </c>
-      <c r="K6" t="n">
-        <v>495510.1635518529</v>
-      </c>
-      <c r="L6" t="n">
-        <v>495510.1635518533</v>
-      </c>
-      <c r="M6" t="n">
-        <v>410455.1356163407</v>
-      </c>
-      <c r="N6" t="n">
-        <v>495510.163551853</v>
-      </c>
-      <c r="O6" t="n">
-        <v>495510.163551853</v>
-      </c>
       <c r="P6" t="n">
-        <v>495510.163551853</v>
+        <v>495510.1635518526</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
+        <v>341.306832697356</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.8166233022539</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>335.7610886083577</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.5587809723424</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>105.5328013589125</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>39.17738002865252</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.4359441153662</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.7178057525061</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>132.3583119810467</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>142.2354048423647</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>252.2670593163933</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>308.6624859336602</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.0749003934617</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>198.6999368206712</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="15">
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>426.9501404413625</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>255.6522884173729</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34211,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>391.9250669264611</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>508.7132618620056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>295.6084283580291</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>128.8146617507062</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,13 +36129,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37859,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2344447.905521464</v>
+        <v>2340352.264016698</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>29.51180316264988</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>42.68052496925149</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>181.5713159685594</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>114.0269113001703</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>13.15823998920527</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>21.09877532957732</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.47366820089059</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.4031274541119</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>129.6633107558685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>239.1296984349974</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>120.6801145208591</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.12116916215799</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.36981422367135</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>151.3642268094355</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>131.4093105446496</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.77337404802883</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>32.4720786658923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>71.22475183605047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>110.3569086801651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>32.05158559392623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.5168569947382</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>40.32853379926716</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.33989744908958</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.405431550704</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4366,16 +4366,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1232.405431550704</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.00081891452</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1256.412002569147</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1256.412002569147</v>
+        <v>999.0767866616759</v>
       </c>
       <c r="V4" t="n">
-        <v>1256.412002569147</v>
+        <v>999.0767866616759</v>
       </c>
       <c r="W4" t="n">
-        <v>966.9948325321864</v>
+        <v>709.6596166247153</v>
       </c>
       <c r="X4" t="n">
-        <v>739.005281634169</v>
+        <v>709.6596166247153</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.2127024906389</v>
+        <v>488.8670374811852</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>904.8820361188241</v>
+        <v>1966.993846941859</v>
       </c>
       <c r="C5" t="n">
-        <v>904.8820361188241</v>
+        <v>1598.031330001447</v>
       </c>
       <c r="D5" t="n">
-        <v>546.6163375120736</v>
+        <v>1239.765631394697</v>
       </c>
       <c r="E5" t="n">
-        <v>546.6163375120736</v>
+        <v>853.9773787964523</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>442.9914740068447</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.25053145306</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182946</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182946</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182946</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.189556406156</v>
+        <v>474.7770143030104</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1394.624779211758</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1394.624779211758</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070932</v>
+        <v>1105.207609174798</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090758</v>
+        <v>877.2180582767803</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1427566090758</v>
+        <v>656.4254791332502</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.124011696102</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.124011696102</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.124011696102</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.863183736036</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.723851760224</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.8535386027992</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>435.8535386027992</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>285.7368991904634</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7368991904634</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>285.7368991904634</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>285.7368991904634</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310562</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330389</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330389</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>221.343178181171</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>221.343178181171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969299</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2383.963271233119</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2383.963271233119</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,16 +5761,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5837,19 +5837,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>450.3518748756881</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5955,7 +5955,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3044.370838283061</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C25" t="n">
-        <v>2875.434655355155</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D25" t="n">
-        <v>2725.318015942819</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>4218.903091397696</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>3964.218603191809</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>3674.801433154848</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>3446.811882256831</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>3226.019303113301</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1944.661001050011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4149.386955555053</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3894.702467349166</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3605.285297312205</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3377.295746414188</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1656.010514870942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1366.593344833982</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7168,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,43 +7183,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.1865537761979</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1392.965472922287</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.975922024269</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.1833428807391</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>35.91627445172497</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856931</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.4634841899368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.005432486450296</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15.88259428919238</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.11482774761927</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.6605885985403</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.9597225531937</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>115.352746708872</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>220.0860577299018</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.7299641038896</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>246.1944645373239</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351662</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351662</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
@@ -26322,40 +26322,40 @@
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26438,22 +26438,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-727430.3655945351</v>
       </c>
       <c r="C6" t="n">
-        <v>387321.4179813849</v>
+        <v>387321.417981385</v>
       </c>
       <c r="D6" t="n">
-        <v>227305.9552333856</v>
+        <v>227305.9552333859</v>
       </c>
       <c r="E6" t="n">
-        <v>170097.7017444976</v>
+        <v>169750.3224901411</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.1635518528</v>
+        <v>495162.7842974957</v>
       </c>
       <c r="G6" t="n">
-        <v>495510.1635518537</v>
+        <v>495162.7842974956</v>
       </c>
       <c r="H6" t="n">
-        <v>495510.163551853</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="I6" t="n">
-        <v>495510.1635518526</v>
+        <v>495162.7842974956</v>
       </c>
       <c r="J6" t="n">
-        <v>327904.9857418702</v>
+        <v>327557.6064875133</v>
       </c>
       <c r="K6" t="n">
-        <v>495510.1635518532</v>
+        <v>495162.7842974959</v>
       </c>
       <c r="L6" t="n">
-        <v>447216.1935436625</v>
+        <v>446868.8142893052</v>
       </c>
       <c r="M6" t="n">
-        <v>410455.1356163411</v>
+        <v>410107.7563619843</v>
       </c>
       <c r="N6" t="n">
-        <v>495510.1635518532</v>
+        <v>495162.7842974961</v>
       </c>
       <c r="O6" t="n">
-        <v>495510.1635518529</v>
+        <v>495162.7842974958</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.1635518526</v>
+        <v>495162.7842974959</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>335.7610886083577</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>327.0505757092175</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>39.17738002865252</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>172.2002428210303</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>393.7178057525061</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>390.4489274433766</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.3583119810467</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.82402666708867</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>252.2670593163933</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.86547352390463</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.0749003934617</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9501404413625</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>255.6522884173729</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>493.6049778318539</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>152.3969967825795</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>295.6084283580291</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>128.8146617507062</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902957</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>359.6305704175236</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2340352.264016698</v>
+        <v>2342112.794319484</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>214.3411264127414</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>42.68052496925149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>91.63833652492387</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>114.0269113001703</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09877532957732</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>365.3853455893379</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.4031274541119</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>239.1296984349974</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>36.22494343870298</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408066</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>148.2735510725095</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>114.5006452705937</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="I46" t="n">
-        <v>80.33989744908958</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2345.833140104457</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297105</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.945518029432</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2387.128251861729</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.2185726509455</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>143.810762855805</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>143.810762855805</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>999.0767866616759</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>999.0767866616759</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>709.6596166247153</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>709.6596166247153</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.8670374811852</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1966.993846941859</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1598.031330001447</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1239.765631394697</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>853.9773787964523</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>442.9914740068447</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>2353.59368700598</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2353.59368700598</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.624779211758</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1394.624779211758</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1105.207609174798</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>877.2180582767803</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.4254791332502</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2767.792255586147</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2436.729368242576</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2083.960712972462</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>1710.494954711382</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.35562273557</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5178,25 +5178,25 @@
         <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,19 +5223,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2410.372231621975</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W13" t="n">
         <v>1647.011051783227</v>
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098242</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819173</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695815</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3896878871884</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>369.499740389278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2297.191819870655</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2077.590354893597</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,19 +6955,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>800.6374272687974</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E46" t="n">
-        <v>483.8760050556308</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F46" t="n">
-        <v>483.8760050556308</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G46" t="n">
-        <v>316.6799057705107</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.25823202432844</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.91627445172497</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856931</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>30.15030327141871</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>43.2652634529499</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>32.75273492913507</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>104.0840080815011</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>19.50758019582665</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351662</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815075.8712351662</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
         <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26447,7 +26447,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727430.3655945351</v>
+        <v>-727430.3655945347</v>
       </c>
       <c r="C6" t="n">
         <v>387321.417981385</v>
       </c>
       <c r="D6" t="n">
-        <v>227305.9552333859</v>
+        <v>227305.9552333857</v>
       </c>
       <c r="E6" t="n">
-        <v>169750.3224901411</v>
+        <v>170062.9638190622</v>
       </c>
       <c r="F6" t="n">
-        <v>495162.7842974957</v>
+        <v>495475.4256264167</v>
       </c>
       <c r="G6" t="n">
-        <v>495162.7842974956</v>
+        <v>495475.4256264174</v>
       </c>
       <c r="H6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.425626417</v>
       </c>
       <c r="I6" t="n">
-        <v>495162.7842974956</v>
+        <v>495475.4256264175</v>
       </c>
       <c r="J6" t="n">
-        <v>327557.6064875133</v>
+        <v>327870.2478164347</v>
       </c>
       <c r="K6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.425626417</v>
       </c>
       <c r="L6" t="n">
-        <v>446868.8142893052</v>
+        <v>447181.4556182263</v>
       </c>
       <c r="M6" t="n">
-        <v>410107.7563619843</v>
+        <v>410420.3976909056</v>
       </c>
       <c r="N6" t="n">
-        <v>495162.7842974961</v>
+        <v>495475.425626417</v>
       </c>
       <c r="O6" t="n">
-        <v>495162.7842974958</v>
+        <v>495475.4256264174</v>
       </c>
       <c r="P6" t="n">
-        <v>495162.7842974959</v>
+        <v>495475.4256264172</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>113.4111320573935</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>327.0505757092175</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.15825867897671</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>172.2002428210303</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>390.4489274433766</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>4.34575508913116</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>46.82402666708867</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>11.86547352390463</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378501</v>
+      </c>
+      <c r="M3" t="n">
+        <v>366.9313322820404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
-      <c r="N3" t="n">
-        <v>391.197099592874</v>
-      </c>
-      <c r="O3" t="n">
-        <v>335.4246819961231</v>
-      </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>263.9377611478607</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.3969967825795</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35901,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
